--- a/data/xlsx/Terrain.xlsx
+++ b/data/xlsx/Terrain.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL144"/>
+  <dimension ref="A1:AL153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -16842,6 +16842,1040 @@
       </c>
       <c r="AL144" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>TID_扉_破壊不可</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>MTID_MagicDoor</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>COST_不可</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
+      <c r="S145" t="n">
+        <v>0</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>扉</t>
+        </is>
+      </c>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD145" t="inlineStr">
+        <is>
+          <t>地板</t>
+        </is>
+      </c>
+      <c r="AE145" t="inlineStr"/>
+      <c r="AF145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>2048</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>255</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>255</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>TID_宝箱_氷結界</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>MTID_IceBarrier</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>COST_不可</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
+      <c r="S146" t="n">
+        <v>0</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0</v>
+      </c>
+      <c r="U146" t="n">
+        <v>0</v>
+      </c>
+      <c r="V146" t="n">
+        <v>0</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>宝箱</t>
+        </is>
+      </c>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD146" t="inlineStr">
+        <is>
+          <t>空宝箱</t>
+        </is>
+      </c>
+      <c r="AE146" t="inlineStr">
+        <is>
+          <t>空宝箱</t>
+        </is>
+      </c>
+      <c r="AF146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>196610</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>255</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>255</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>TID_床_氷結界</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>MTID_IceBarrier</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>COST_平地</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
+      <c r="S147" t="n">
+        <v>0</v>
+      </c>
+      <c r="T147" t="n">
+        <v>0</v>
+      </c>
+      <c r="U147" t="n">
+        <v>0</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0</v>
+      </c>
+      <c r="W147" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD147" t="inlineStr"/>
+      <c r="AE147" t="inlineStr"/>
+      <c r="AF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>196608</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>255</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>255</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>TID_魔法陣_氷結界</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>MTID_IceBarrier</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>COST_平地</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
+      <c r="S148" t="n">
+        <v>0</v>
+      </c>
+      <c r="T148" t="n">
+        <v>0</v>
+      </c>
+      <c r="U148" t="n">
+        <v>0</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD148" t="inlineStr"/>
+      <c r="AE148" t="inlineStr"/>
+      <c r="AF148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>196608</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>255</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>255</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TID_謎の平地</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>MTID_Unknown</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>COST_平地</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
+      <c r="S149" t="n">
+        <v>0</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0</v>
+      </c>
+      <c r="U149" t="n">
+        <v>0</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD149" t="inlineStr"/>
+      <c r="AE149" t="inlineStr"/>
+      <c r="AF149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>64</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>255</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>TID_湖</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>MTID_Lake</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>COST_空</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
+      <c r="S150" t="n">
+        <v>0</v>
+      </c>
+      <c r="T150" t="n">
+        <v>0</v>
+      </c>
+      <c r="U150" t="n">
+        <v>0</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD150" t="inlineStr"/>
+      <c r="AE150" t="inlineStr"/>
+      <c r="AF150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>TID_氷床</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>MTID_IceTile</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>COST_不可</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
+      <c r="S151" t="n">
+        <v>1</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
+      <c r="V151" t="n">
+        <v>2</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0</v>
+      </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>氷床</t>
+        </is>
+      </c>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD151" t="inlineStr"/>
+      <c r="AE151" t="inlineStr">
+        <is>
+          <t>TID_氷床</t>
+        </is>
+      </c>
+      <c r="AF151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>TID_氷床_永続</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>MTID_IceTile</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>COST_不可</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
+      <c r="S152" t="n">
+        <v>0</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>0</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>氷床</t>
+        </is>
+      </c>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD152" t="inlineStr"/>
+      <c r="AE152" t="inlineStr">
+        <is>
+          <t>TID_氷床_永続</t>
+        </is>
+      </c>
+      <c r="AF152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>TID_氷の領域</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>MTID_IceTile</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>COST_不可</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
+      <c r="S153" t="n">
+        <v>2</v>
+      </c>
+      <c r="T153" t="n">
+        <v>0</v>
+      </c>
+      <c r="U153" t="n">
+        <v>0</v>
+      </c>
+      <c r="V153" t="n">
+        <v>2</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0</v>
+      </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>氷床</t>
+        </is>
+      </c>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD153" t="inlineStr"/>
+      <c r="AE153" t="inlineStr">
+        <is>
+          <t>TID_氷床</t>
+        </is>
+      </c>
+      <c r="AF153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/Terrain.xlsx
+++ b/data/xlsx/Terrain.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL153"/>
+  <dimension ref="A1:AL158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -16853,7 +16853,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MTID_MagicDoor</t>
+          <t>魔法之门</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -16971,7 +16971,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MTID_IceBarrier</t>
+          <t>冰之结界</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>MTID_IceBarrier</t>
+          <t>冰之结界</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -17203,7 +17203,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MTID_IceBarrier</t>
+          <t>冰之结界</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -17313,7 +17313,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MTID_Unknown</t>
+          <t>？？？</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>MTID_Lake</t>
+          <t>湖</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -17528,12 +17528,12 @@
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TID_氷床</t>
+          <t>TID_噴気孔</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>MTID_IceTile</t>
+          <t>喷气孔</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -17545,7 +17545,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -17584,7 +17584,7 @@
         <v>0</v>
       </c>
       <c r="S151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T151" t="n">
         <v>0</v>
@@ -17593,16 +17593,12 @@
         <v>0</v>
       </c>
       <c r="V151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W151" t="n">
-        <v>0</v>
-      </c>
-      <c r="X151" t="inlineStr">
-        <is>
-          <t>氷床</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr"/>
       <c r="AA151" t="n">
@@ -17615,11 +17611,7 @@
         <v>0</v>
       </c>
       <c r="AD151" t="inlineStr"/>
-      <c r="AE151" t="inlineStr">
-        <is>
-          <t>TID_氷床</t>
-        </is>
-      </c>
+      <c r="AE151" t="inlineStr"/>
       <c r="AF151" t="n">
         <v>0</v>
       </c>
@@ -17627,16 +17619,16 @@
         <v>0</v>
       </c>
       <c r="AH151" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AI151" t="n">
         <v>0</v>
       </c>
       <c r="AJ151" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="AK151" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="AL151" t="n">
         <v>255</v>
@@ -17646,17 +17638,17 @@
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TID_氷床_永続</t>
+          <t>TID_火山弾跡</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MTID_IceTile</t>
+          <t>焦痕</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>COST_不可</t>
+          <t>COST_平地</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -17711,16 +17703,12 @@
         <v>0</v>
       </c>
       <c r="V152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W152" t="n">
-        <v>0</v>
-      </c>
-      <c r="X152" t="inlineStr">
-        <is>
-          <t>氷床</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr"/>
       <c r="AA152" t="n">
@@ -17733,11 +17721,7 @@
         <v>0</v>
       </c>
       <c r="AD152" t="inlineStr"/>
-      <c r="AE152" t="inlineStr">
-        <is>
-          <t>TID_氷床_永続</t>
-        </is>
-      </c>
+      <c r="AE152" t="inlineStr"/>
       <c r="AF152" t="n">
         <v>0</v>
       </c>
@@ -17745,43 +17729,43 @@
         <v>0</v>
       </c>
       <c r="AH152" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AI152" t="n">
         <v>0</v>
       </c>
       <c r="AJ152" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AK152" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="AL152" t="n">
-        <v>255</v>
+        <v>64</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TID_氷の領域</t>
+          <t>TID_噴火口</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MTID_IceTile</t>
+          <t>喷火口</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>COST_不可</t>
+          <t>COST_空</t>
         </is>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -17820,7 +17804,7 @@
         <v>0</v>
       </c>
       <c r="S153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T153" t="n">
         <v>0</v>
@@ -17829,16 +17813,12 @@
         <v>0</v>
       </c>
       <c r="V153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W153" t="n">
-        <v>0</v>
-      </c>
-      <c r="X153" t="inlineStr">
-        <is>
-          <t>氷床</t>
-        </is>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr"/>
       <c r="AA153" t="n">
@@ -17851,30 +17831,616 @@
         <v>0</v>
       </c>
       <c r="AD153" t="inlineStr"/>
-      <c r="AE153" t="inlineStr">
+      <c r="AE153" t="inlineStr"/>
+      <c r="AF153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>128</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>255</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>192</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
         <is>
           <t>TID_氷床</t>
         </is>
       </c>
-      <c r="AF153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH153" t="n">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>结冰</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>COST_不可</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S154" t="n">
+        <v>1</v>
+      </c>
+      <c r="T154" t="n">
+        <v>0</v>
+      </c>
+      <c r="U154" t="n">
+        <v>0</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0</v>
+      </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>氷床</t>
+        </is>
+      </c>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD154" t="inlineStr"/>
+      <c r="AE154" t="inlineStr">
+        <is>
+          <t>结冰</t>
+        </is>
+      </c>
+      <c r="AF154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH154" t="n">
         <v>12</v>
       </c>
-      <c r="AI153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL153" t="n">
+      <c r="AI154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TID_煙</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>黑烟</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>COST_不可</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-20</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
+      <c r="S155" t="n">
+        <v>1</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1</v>
+      </c>
+      <c r="U155" t="n">
+        <v>0</v>
+      </c>
+      <c r="V155" t="n">
+        <v>0</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0</v>
+      </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>黒煙</t>
+        </is>
+      </c>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD155" t="inlineStr"/>
+      <c r="AE155" t="inlineStr">
+        <is>
+          <t>黑烟</t>
+        </is>
+      </c>
+      <c r="AF155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>250</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>TID_煙_G004</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>黑烟</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>COST_不可</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M156" t="n">
+        <v>-20</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
+      <c r="S156" t="n">
+        <v>0</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1</v>
+      </c>
+      <c r="U156" t="n">
+        <v>0</v>
+      </c>
+      <c r="V156" t="n">
+        <v>0</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0</v>
+      </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>黒煙</t>
+        </is>
+      </c>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD156" t="inlineStr"/>
+      <c r="AE156" t="inlineStr">
+        <is>
+          <t>黑烟</t>
+        </is>
+      </c>
+      <c r="AF156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>250</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>TID_氷床_永続</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>结冰</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>COST_不可</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
+      <c r="S157" t="n">
+        <v>0</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0</v>
+      </c>
+      <c r="U157" t="n">
+        <v>0</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0</v>
+      </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>氷床</t>
+        </is>
+      </c>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD157" t="inlineStr"/>
+      <c r="AE157" t="inlineStr">
+        <is>
+          <t>结冰</t>
+        </is>
+      </c>
+      <c r="AF157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>TID_氷の領域</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>结冰</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>COST_不可</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
+      <c r="S158" t="n">
+        <v>2</v>
+      </c>
+      <c r="T158" t="n">
+        <v>0</v>
+      </c>
+      <c r="U158" t="n">
+        <v>0</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0</v>
+      </c>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>氷床</t>
+        </is>
+      </c>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD158" t="inlineStr"/>
+      <c r="AE158" t="inlineStr">
+        <is>
+          <t>结冰</t>
+        </is>
+      </c>
+      <c r="AF158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL158" t="n">
         <v>255</v>
       </c>
     </row>
